--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -24,12 +24,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>sabitha.adama@gmail.com</t>
-  </si>
-  <si>
-    <t>qa@123</t>
-  </si>
-  <si>
     <t>AdminEmail</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>admin@123</t>
+  </si>
+  <si>
+    <t>rajesh.n@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Qa@123</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,24 +434,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -36,10 +36,10 @@
     <t>admin@123</t>
   </si>
   <si>
-    <t>rajesh.n@vensaiinc.com</t>
-  </si>
-  <si>
-    <t>Qa@123</t>
+    <t>thejaswi.y@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Sai@123</t>
   </si>
 </sst>
 </file>
@@ -455,10 +455,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Email</t>
   </si>
@@ -36,10 +36,16 @@
     <t>admin@123</t>
   </si>
   <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
     <t>thejaswi.y@vensaiinc.com</t>
   </si>
   <si>
     <t>Sai@123</t>
+  </si>
+  <si>
+    <t>Abc@123</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -420,13 +426,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,13 +446,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -453,8 +463,15 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>thejaswi.y@vensaiinc.com</t>
-  </si>
-  <si>
-    <t>Sai@123</t>
   </si>
   <si>
     <t>Abc@123</t>
@@ -455,7 +452,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -469,8 +466,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -39,10 +39,16 @@
     <t>ChangePassword</t>
   </si>
   <si>
+    <t>sabitha.adama@gmail.com</t>
+  </si>
+  <si>
+    <t>Qa@123</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
     <t>thejaswi.y@vensaiinc.com</t>
-  </si>
-  <si>
-    <t>Abc@123</t>
   </si>
 </sst>
 </file>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,9 +434,10 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,8 +453,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -462,12 +472,17 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -39,16 +39,10 @@
     <t>ChangePassword</t>
   </si>
   <si>
-    <t>sabitha.adama@gmail.com</t>
-  </si>
-  <si>
-    <t>Qa@123</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>thejaswi.y@vensaiinc.com</t>
+    <t>ravi.tiwari@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Ravi@123</t>
   </si>
 </sst>
 </file>
@@ -421,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,10 +428,9 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,11 +446,8 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -472,9 +462,6 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +469,6 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
+++ b/coxaxle/src/test/resources/datasheets/AT_04_VerifyDealerDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -39,16 +39,10 @@
     <t>ChangePassword</t>
   </si>
   <si>
-    <t>sabitha.adama@gmail.com</t>
-  </si>
-  <si>
-    <t>Qa@123</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>thejaswi.y@vensaiinc.com</t>
+    <t>ravi.tiwari@vensaiinc.com</t>
+  </si>
+  <si>
+    <t>Ravi@123</t>
   </si>
 </sst>
 </file>
@@ -421,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -434,10 +428,9 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,11 +446,8 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -472,9 +462,6 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +469,6 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
